--- a/assets/planos/RO - RMV - Plano de Ação 2023.xlsx
+++ b/assets/planos/RO - RMV - Plano de Ação 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.gontijo\Desktop\DSUSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="456" documentId="13_ncr:1_{896D897B-087D-4532-B5BC-3F8395FE2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF54DA1-804C-4764-8D66-A2A8375E5674}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="13_ncr:1_{896D897B-087D-4532-B5BC-3F8395FE2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECE43249-7EA8-4950-810F-FEAF5FCFE1D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="573" xr2:uid="{317DE164-AE1E-402C-AB8E-CAABBD5F8C60}"/>
   </bookViews>
@@ -435,7 +435,7 @@
     <t>Diagnóstico (limitado a 1000 caracteres)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Segundo os dados apresentados no Observatório Estadual de Segurança Pública para o crime  de homicídio: - Rondônia registrou em 2021 um total de 418 homícidios dolosos e no ano de 2022 registrou um total de 478 homicídios dolosos, um aumento de 14,35%, sendo que  lidera o ranking em número, a Capital Porto Velho  com 175 homicídios (51,5%) e 303 no interior do Estado (48,5 %). Fonte:  Observatório do Desenvolvimento Regional do Estado de Rondônia (http://observatorio.sepog.ro.gov.br/sesdec/indicadores)</t>
+    <t xml:space="preserve"> Segundo os dados apresentados no Observatório Estadual de Segurança Pública para o crime  de homicídio: - Rondônia registrou em 2021 um total de 418 homícidios dolosos e no ano de 2022 registrou um total de 478 homicídios dolosos, um aumento de 14,35%, sendo que  lidera o ranking em número, a Capital Porto Velho  com 175 homicídios (51,5%) e 303 no interior do Estado (48,5 %). Fonte:  Observatório do Desenvolvimento Regional do Estado de Rondônia (http://observatorio.sepog.ro.gov.br/sesdec/indicadores)      (juntar dados de outros tipos de mortes, mas homicídios traz mais prejuízos) latrocínios, .... (indicar regiões mais atingidas, bairros, horários)</t>
   </si>
   <si>
     <t>Justificativa (limitada a 1000 caracteres)</t>
@@ -447,7 +447,7 @@
     <t>Meta Geral (limitado a 200 caraceteres)</t>
   </si>
   <si>
-    <t>Reduzir no Estado de Rondônia o número de homicídios 6% aé o ano de 2025.</t>
+    <t>Reduzir no Estado de Rondônia o número de homicídios 6% aé o ano de 2025. (meta coerente, reduzida (regiões, bairrro)</t>
   </si>
   <si>
     <t>Estratégia de Implementação (limitada a 1000 caracteres)</t>
@@ -2672,24 +2672,34 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2708,29 +2718,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3107,8 +3107,8 @@
   </sheetPr>
   <dimension ref="A1:Q1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="24" customHeight="1"/>
@@ -3133,48 +3133,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="22">
         <v>2023</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="61.5">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="2"/>
@@ -3195,134 +3195,134 @@
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" ht="30.75" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="30.75" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:16" ht="30.75" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16" ht="15.75">
       <c r="A10" s="8"/>
@@ -3343,134 +3343,134 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="39" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
     </row>
     <row r="12" spans="1:16" ht="30.75" customHeight="1">
       <c r="A12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:16" ht="30.75" customHeight="1">
       <c r="A13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="30.75" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
     </row>
     <row r="15" spans="1:16" ht="30.75" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
     </row>
     <row r="16" spans="1:16" ht="30.75" customHeight="1">
       <c r="A16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
     </row>
     <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="7"/>
@@ -3491,532 +3491,532 @@
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="50.25" customHeight="1">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
     </row>
     <row r="19" spans="1:16" ht="141.75" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
     </row>
     <row r="20" spans="1:16" ht="141.75" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
     </row>
     <row r="21" spans="1:16" ht="141.75" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
     </row>
     <row r="22" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
     </row>
     <row r="23" spans="1:16" ht="69" customHeight="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
     </row>
     <row r="24" spans="1:16" ht="18.75">
-      <c r="A24" s="42"/>
-      <c r="B24" s="47" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16" ht="54.75" customHeight="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
     </row>
     <row r="26" spans="1:16" ht="18.75">
-      <c r="A26" s="42"/>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" spans="1:16" ht="33.75" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
     </row>
     <row r="28" spans="1:16" ht="18.75">
-      <c r="A28" s="42"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
     </row>
     <row r="29" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="48" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
     </row>
     <row r="30" spans="1:16" ht="18.75">
-      <c r="A30" s="42"/>
-      <c r="B30" s="44" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
     </row>
     <row r="31" spans="1:16" ht="51" customHeight="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="48" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
     </row>
     <row r="32" spans="1:16" ht="75" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
     </row>
     <row r="33" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="39" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
     </row>
     <row r="34" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A34" s="42"/>
-      <c r="B34" s="38" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39" t="s">
+      <c r="C34" s="53"/>
+      <c r="D34" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
     </row>
     <row r="35" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39" t="s">
+      <c r="C35" s="53"/>
+      <c r="D35" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
     </row>
     <row r="36" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39" t="s">
+      <c r="C36" s="53"/>
+      <c r="D36" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
     </row>
     <row r="37" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39" t="s">
+      <c r="C37" s="53"/>
+      <c r="D37" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
     </row>
     <row r="38" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="38" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39" t="s">
+      <c r="C38" s="53"/>
+      <c r="D38" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
     </row>
     <row r="39" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A39" s="42"/>
-      <c r="B39" s="38" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
     </row>
     <row r="40" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="38" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
     </row>
     <row r="41" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A41" s="42"/>
-      <c r="B41" s="38" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
     </row>
     <row r="42" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A42" s="42"/>
-      <c r="B42" s="38" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
     </row>
     <row r="43" spans="1:16" ht="2.25" customHeight="1">
       <c r="A43" s="7"/>
@@ -4163,56 +4163,56 @@
       <c r="P51" s="7"/>
     </row>
     <row r="52" spans="1:17" ht="36.75" customHeight="1">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
     </row>
     <row r="53" spans="1:17" ht="36" customHeight="1">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40" t="s">
+      <c r="C53" s="54"/>
+      <c r="D53" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40" t="s">
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40" t="s">
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="P53" s="40"/>
+      <c r="P53" s="54"/>
       <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="66" customHeight="1">
-      <c r="A54" s="40"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="24" t="s">
         <v>65</v>
       </c>
@@ -21957,37 +21957,18 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2JGoNLOIwOg8qYKXAAXF5pCIYOZ/ii1ie8J//28fNTTF84UEUgQ1IsDmpwyE7bXvBJNvGEbq80cdM0/Af01YPw==" saltValue="r5Z1/dM24L+eGEQwhAwjyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0"/>
   <mergeCells count="59">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B8:P8"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="B9:P9"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B32:P32"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B31:P31"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B26:P26"/>
-    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:K53"/>
     <mergeCell ref="A22:A31"/>
     <mergeCell ref="D33:P33"/>
     <mergeCell ref="D34:P34"/>
@@ -22004,18 +21985,37 @@
     <mergeCell ref="D42:P42"/>
     <mergeCell ref="D37:P37"/>
     <mergeCell ref="D38:P38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B31:P31"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B8:P8"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:L1"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17 I43:K51 I1006:K1048576" xr:uid="{5D7C397E-12F3-449F-86FE-0120D5AA2AFD}">
@@ -24383,12 +24383,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100922EFD6E97D0794186BFE6FE18B142D3" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e2991a8b01ad41f40b9ea08d2a0af66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f85943d5-5772-48cc-9b0c-4aad256dcb95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2b3112e092c5b9af4cf4dc2dd54b75f" ns2:_="">
     <xsd:import namespace="f85943d5-5772-48cc-9b0c-4aad256dcb95"/>
@@ -24532,14 +24526,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C962F554-A6D7-4090-ADC7-5D91B902DF50}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875555F2-42E6-4A58-82DB-85F28B4556E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{115A92A0-81E6-4FF4-A02F-15AAD9882BBC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{115A92A0-81E6-4FF4-A02F-15AAD9882BBC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875555F2-42E6-4A58-82DB-85F28B4556E7}"/>
 </file>